--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1773633.63138768</v>
+        <v>-1776493.463622949</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.23362354765618</v>
+        <v>133.8333590606436</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
-        <v>109.062867886727</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>123.0785258171777</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>124.0375532366295</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>103.9014197573564</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>133.078649108965</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>382.6612299361348</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489924</v>
+        <v>365.6240285668287</v>
       </c>
       <c r="H5" t="n">
-        <v>25.65899634117723</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.4372018947643</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926218</v>
+        <v>143.3876437926215</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4877993650491</v>
+        <v>210.487799365049</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.41228908636391</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075481</v>
+        <v>97.35224439075475</v>
       </c>
       <c r="I6" t="n">
-        <v>36.33890406437056</v>
+        <v>36.33890406437035</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.47818973106321</v>
+        <v>4.478189731062841</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>193.9532570062491</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>58.49347940009714</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>37.36894969675051</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6990233854882</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.017892827655857</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.2023528106945</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>104.9615020223452</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>215.0360381090312</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>246.9242610489225</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046386</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>188.4793846112749</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>44.72043036158244</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>176.5402157238622</v>
       </c>
       <c r="U10" t="n">
-        <v>238.6086277435744</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>79.75167225698718</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272864</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.600826611594925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>13.37642554686367</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>158.8230507160376</v>
+        <v>155.1980648094033</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>93.62264337260652</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>7.602497644399061</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>187.4608242120711</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>30.87238256911979</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>216.8180354051593</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634796</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>140.3829797864967</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3202,7 +3202,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541848</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
         <v>56.98118882652579</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445521</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
         <v>142.9621736065881</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>211.3673327389938</v>
+        <v>224.59746731481</v>
       </c>
       <c r="C2" t="n">
-        <v>211.3673327389938</v>
+        <v>224.59746731481</v>
       </c>
       <c r="D2" t="n">
-        <v>211.3673327389938</v>
+        <v>224.59746731481</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389938</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
         <v>15.00204697330559</v>
@@ -4340,40 +4340,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020265</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652797</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652797</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487949</v>
+        <v>549.202463503662</v>
       </c>
       <c r="U2" t="n">
-        <v>450.518050631899</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="V2" t="n">
-        <v>450.518050631899</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="W2" t="n">
-        <v>450.518050631899</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="X2" t="n">
-        <v>261.0982656154142</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="Y2" t="n">
-        <v>261.0982656154142</v>
+        <v>359.7826784871772</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.8624079336487</v>
+        <v>473.5288154050985</v>
       </c>
       <c r="C3" t="n">
-        <v>116.8624079336487</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="D3" t="n">
-        <v>116.8624079336487</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
         <v>15.00204697330559</v>
@@ -4419,40 +4419,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>598.819273219876</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>598.819273219876</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="U3" t="n">
-        <v>598.819273219876</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033912</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="W3" t="n">
-        <v>409.3994882033912</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="X3" t="n">
-        <v>285.0777449537168</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="Y3" t="n">
-        <v>285.0777449537168</v>
+        <v>473.5288154050985</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.5185539410269</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="C4" t="n">
-        <v>426.5185539410269</v>
+        <v>443.6253053489522</v>
       </c>
       <c r="D4" t="n">
-        <v>276.4019145286911</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="E4" t="n">
-        <v>276.4019145286911</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="F4" t="n">
-        <v>276.4019145286911</v>
+        <v>338.6743763011175</v>
       </c>
       <c r="G4" t="n">
-        <v>141.9790366408477</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
         <v>15.00204697330559</v>
@@ -4489,49 +4489,49 @@
         <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>448.2056470819956</v>
+        <v>285.9838492295949</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242517</v>
+        <v>471.6341805242515</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608019</v>
+        <v>634.3723839608017</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652797</v>
+        <v>746.7254979846272</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575116</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575116</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="T4" t="n">
-        <v>615.9383389575116</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="U4" t="n">
-        <v>615.9383389575116</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="V4" t="n">
-        <v>615.9383389575116</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="W4" t="n">
-        <v>426.5185539410269</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="X4" t="n">
-        <v>426.5185539410269</v>
+        <v>612.5614882768591</v>
       </c>
       <c r="Y4" t="n">
-        <v>426.5185539410269</v>
+        <v>612.5614882768591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>455.6055949324779</v>
+        <v>820.426321890933</v>
       </c>
       <c r="C5" t="n">
-        <v>455.6055949324779</v>
+        <v>820.426321890933</v>
       </c>
       <c r="D5" t="n">
-        <v>455.6055949324779</v>
+        <v>820.426321890933</v>
       </c>
       <c r="E5" t="n">
-        <v>455.6055949324779</v>
+        <v>820.426321890933</v>
       </c>
       <c r="F5" t="n">
-        <v>69.07910004749328</v>
+        <v>813.4808211417295</v>
       </c>
       <c r="G5" t="n">
-        <v>56.53107651729203</v>
+        <v>444.1636205691752</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489078</v>
+        <v>131.0545164704106</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489078</v>
+        <v>30.61289839489105</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121302</v>
+        <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235804</v>
+        <v>238.2046462235833</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190574</v>
+        <v>454.766982319062</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457642989</v>
+        <v>727.4037457643057</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453878</v>
+        <v>1009.065865453887</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831918</v>
+        <v>1261.696156831928</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855759</v>
+        <v>1442.809264855771</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744539</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744539</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="S5" t="n">
-        <v>1385.808915913608</v>
+        <v>1385.808915913622</v>
       </c>
       <c r="T5" t="n">
-        <v>1173.194977161033</v>
+        <v>1173.194977161047</v>
       </c>
       <c r="U5" t="n">
-        <v>1173.194977161033</v>
+        <v>1173.194977161047</v>
       </c>
       <c r="V5" t="n">
-        <v>842.1320898174625</v>
+        <v>1173.194977161047</v>
       </c>
       <c r="W5" t="n">
-        <v>842.1320898174625</v>
+        <v>820.426321890933</v>
       </c>
       <c r="X5" t="n">
-        <v>842.1320898174625</v>
+        <v>820.426321890933</v>
       </c>
       <c r="Y5" t="n">
-        <v>455.6055949324779</v>
+        <v>820.426321890933</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.5351047238964</v>
+        <v>620.3608851307988</v>
       </c>
       <c r="C6" t="n">
-        <v>757.5351047238964</v>
+        <v>620.3608851307988</v>
       </c>
       <c r="D6" t="n">
-        <v>608.6006950626452</v>
+        <v>471.4264754695476</v>
       </c>
       <c r="E6" t="n">
-        <v>449.3632400571896</v>
+        <v>312.1890204640921</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8286820840746</v>
+        <v>165.654462490977</v>
       </c>
       <c r="G6" t="n">
         <v>165.654462490977</v>
       </c>
       <c r="H6" t="n">
-        <v>67.31886209627518</v>
+        <v>67.31886209627525</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489078</v>
+        <v>30.61289839489105</v>
       </c>
       <c r="J6" t="n">
-        <v>174.0122915097565</v>
+        <v>49.18216652275257</v>
       </c>
       <c r="K6" t="n">
-        <v>283.9049531347069</v>
+        <v>159.074828147704</v>
       </c>
       <c r="L6" t="n">
-        <v>477.9917394413719</v>
+        <v>353.1616144543702</v>
       </c>
       <c r="M6" t="n">
-        <v>723.8387327512216</v>
+        <v>731.996232091147</v>
       </c>
       <c r="N6" t="n">
-        <v>990.6012093491704</v>
+        <v>1093.972238426242</v>
       </c>
       <c r="O6" t="n">
-        <v>1212.416963957539</v>
+        <v>1315.787993034612</v>
       </c>
       <c r="P6" t="n">
-        <v>1371.110596409842</v>
+        <v>1474.481625486915</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744539</v>
+        <v>1530.644919744553</v>
       </c>
       <c r="R6" t="n">
-        <v>1526.121495773768</v>
+        <v>1526.121495773782</v>
       </c>
       <c r="S6" t="n">
-        <v>1526.121495773768</v>
+        <v>1526.121495773782</v>
       </c>
       <c r="T6" t="n">
-        <v>1330.209114959375</v>
+        <v>1330.209114959389</v>
       </c>
       <c r="U6" t="n">
-        <v>1102.087904973678</v>
+        <v>1330.209114959389</v>
       </c>
       <c r="V6" t="n">
-        <v>1102.087904973678</v>
+        <v>1095.057006727646</v>
       </c>
       <c r="W6" t="n">
-        <v>847.8505482454761</v>
+        <v>1035.972684101285</v>
       </c>
       <c r="X6" t="n">
-        <v>847.8505482454761</v>
+        <v>828.1211838957527</v>
       </c>
       <c r="Y6" t="n">
-        <v>847.8505482454761</v>
+        <v>620.3608851307988</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>349.1123897117601</v>
+        <v>515.3172683061225</v>
       </c>
       <c r="C7" t="n">
-        <v>349.1123897117601</v>
+        <v>477.570854471021</v>
       </c>
       <c r="D7" t="n">
-        <v>198.9957502994243</v>
+        <v>327.4542150586853</v>
       </c>
       <c r="E7" t="n">
-        <v>198.9957502994243</v>
+        <v>179.5411214762922</v>
       </c>
       <c r="F7" t="n">
-        <v>198.9957502994243</v>
+        <v>32.65117397838182</v>
       </c>
       <c r="G7" t="n">
-        <v>30.61289839489078</v>
+        <v>32.65117397838182</v>
       </c>
       <c r="H7" t="n">
-        <v>30.61289839489078</v>
+        <v>32.65117397838182</v>
       </c>
       <c r="I7" t="n">
-        <v>30.61289839489078</v>
+        <v>32.65117397838182</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489078</v>
+        <v>30.61289839489105</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1668774983372</v>
+        <v>157.1668774983381</v>
       </c>
       <c r="L7" t="n">
-        <v>374.6388343436909</v>
+        <v>374.6388343436925</v>
       </c>
       <c r="M7" t="n">
-        <v>614.3216441132909</v>
+        <v>614.3216441132932</v>
       </c>
       <c r="N7" t="n">
-        <v>853.7399488058438</v>
+        <v>853.739948805847</v>
       </c>
       <c r="O7" t="n">
-        <v>1058.865208650456</v>
+        <v>1058.865208650459</v>
       </c>
       <c r="P7" t="n">
-        <v>1210.8646227023</v>
+        <v>1210.864622702304</v>
       </c>
       <c r="Q7" t="n">
-        <v>1232.666058086406</v>
+        <v>1232.666058086411</v>
       </c>
       <c r="R7" t="n">
-        <v>1112.259641105907</v>
+        <v>1232.666058086411</v>
       </c>
       <c r="S7" t="n">
-        <v>1006.237921891417</v>
+        <v>1029.129362182991</v>
       </c>
       <c r="T7" t="n">
-        <v>1006.237921891417</v>
+        <v>804.4572269229836</v>
       </c>
       <c r="U7" t="n">
-        <v>1006.237921891417</v>
+        <v>515.3172683061225</v>
       </c>
       <c r="V7" t="n">
-        <v>751.55343368553</v>
+        <v>515.3172683061225</v>
       </c>
       <c r="W7" t="n">
-        <v>751.55343368553</v>
+        <v>515.3172683061225</v>
       </c>
       <c r="X7" t="n">
-        <v>751.55343368553</v>
+        <v>515.3172683061225</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7608545419998</v>
+        <v>515.3172683061225</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1256.174399222538</v>
+        <v>789.5335540906475</v>
       </c>
       <c r="C8" t="n">
-        <v>1256.174399222538</v>
+        <v>420.5710371502358</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.174399222538</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="E8" t="n">
-        <v>870.3861466242935</v>
+        <v>62.30533854348528</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346859</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
         <v>43.36919653809315</v>
@@ -4802,22 +4802,22 @@
         <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
         <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
         <v>2021.630958172451</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642788</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>1826.151173794703</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.943054492652</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.943054492652</v>
+        <v>1919.041381400695</v>
       </c>
       <c r="W8" t="n">
-        <v>1256.174399222538</v>
+        <v>1566.272726130581</v>
       </c>
       <c r="X8" t="n">
-        <v>1256.174399222538</v>
+        <v>1566.272726130581</v>
       </c>
       <c r="Y8" t="n">
-        <v>1256.174399222538</v>
+        <v>1176.133394154769</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.2981106200058</v>
+        <v>904.8600091750928</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8450813388788</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300614</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
         <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>508.4654164929053</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>766.0165520528933</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>1085.923447521403</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1428.705971516035</v>
       </c>
       <c r="O9" t="n">
-        <v>1703.579194032485</v>
+        <v>1720.065217770601</v>
       </c>
       <c r="P9" t="n">
-        <v>1918.087609593386</v>
+        <v>1934.573633331502</v>
       </c>
       <c r="Q9" t="n">
         <v>2168.459826904657</v>
@@ -4908,25 +4908,25 @@
         <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406375</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880351</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U9" t="n">
-        <v>1606.683255013616</v>
+        <v>1978.076610125592</v>
       </c>
       <c r="V9" t="n">
-        <v>1606.683255013616</v>
+        <v>1742.924501893849</v>
       </c>
       <c r="W9" t="n">
-        <v>1352.445898285414</v>
+        <v>1488.687145165648</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.273746405028</v>
+        <v>1280.835644960115</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.513447640074</v>
+        <v>1073.075346195161</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>618.7653456281527</v>
+        <v>825.3578893636209</v>
       </c>
       <c r="C10" t="n">
-        <v>618.7653456281527</v>
+        <v>656.421706435714</v>
       </c>
       <c r="D10" t="n">
-        <v>468.6487062158169</v>
+        <v>506.3050670233782</v>
       </c>
       <c r="E10" t="n">
-        <v>468.6487062158169</v>
+        <v>358.3919734409851</v>
       </c>
       <c r="F10" t="n">
-        <v>321.7587587179065</v>
+        <v>211.5020259430748</v>
       </c>
       <c r="G10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
         <v>43.36919653809315</v>
@@ -4984,28 +4984,28 @@
         <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465731</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1377.190882465731</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="T10" t="n">
-        <v>1377.190882465731</v>
+        <v>1308.031928467525</v>
       </c>
       <c r="U10" t="n">
-        <v>1136.172066563131</v>
+        <v>1308.031928467525</v>
       </c>
       <c r="V10" t="n">
-        <v>1136.172066563131</v>
+        <v>1053.347440261638</v>
       </c>
       <c r="W10" t="n">
-        <v>846.75489652617</v>
+        <v>1053.347440261638</v>
       </c>
       <c r="X10" t="n">
-        <v>618.7653456281527</v>
+        <v>825.3578893636209</v>
       </c>
       <c r="Y10" t="n">
-        <v>618.7653456281527</v>
+        <v>825.3578893636209</v>
       </c>
     </row>
     <row r="11">
@@ -5021,67 +5021,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5130,10 +5130,10 @@
         <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>870.3164745246319</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>701.380291596725</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>551.2636521843892</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>403.3505586019961</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>256.4606111040857</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258108</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602306</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396419</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498402</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>1051.964939354872</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5270,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>189.4149073564862</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>789.7592298206043</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>620.8230468926974</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5841,13 +5841,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596168</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,22 +5984,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6026,10 +6026,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2197.062545487567</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U25" t="n">
-        <v>1907.987318831765</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6315,16 +6315,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.8641191832229</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1978.054428916699</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.979202260897</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.29471405501</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W28" t="n">
-        <v>1434.29471405501</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X28" t="n">
-        <v>1206.305163156993</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y28" t="n">
-        <v>985.5125840134626</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,7 +6455,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192599</v>
@@ -6467,16 +6467,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6786,10 +6786,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6895,10 +6895,10 @@
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
         <v>1373.553594266881</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319315</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656809</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150015</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942647</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,22 +7251,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7634,64 +7634,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,19 +7801,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7849,7 +7849,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8137,16 +8137,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>154.194637189931</v>
+        <v>82.97369176944322</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724426</v>
+        <v>34.66253762724355</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.3309336635612</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>96.17528256277194</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.4151808859201</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>247.8126877821578</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.4830491584154</v>
+        <v>141.8304999279951</v>
       </c>
       <c r="R9" t="n">
         <v>31.66886087721419</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.5002181158244</v>
+        <v>248.900482602837</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988685</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>63.64367339871047</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>192.8738599381232</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>85.77246603528167</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>211.9838267404999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>152.1477127454052</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.00892946589966</v>
+        <v>24.63391537253398</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>218.1071577446381</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>29.94462611521715</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>221.2652607547082</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0.5874149221289997</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1098576.922838512</v>
+        <v>1098576.922838511</v>
       </c>
     </row>
     <row r="3">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.2845365931</v>
+        <v>101551.284536593</v>
       </c>
       <c r="C2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>121071.9899535009</v>
@@ -26335,7 +26335,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="J2" t="n">
-        <v>121071.9899535009</v>
+        <v>121071.9899535008</v>
       </c>
       <c r="K2" t="n">
         <v>121071.9899535009</v>
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996461</v>
+        <v>216004.0468996498</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.511296067</v>
+        <v>167084.5112960634</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742644</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838168</v>
+        <v>50221.67010838259</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064719</v>
+        <v>59784.02116064631</v>
       </c>
       <c r="M3" t="n">
         <v>157146.3805515977</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195959.7647260689</v>
+        <v>195959.7647260688</v>
       </c>
       <c r="C4" t="n">
-        <v>220711.7529307706</v>
+        <v>220711.7529307696</v>
       </c>
       <c r="D4" t="n">
         <v>173824.4120003225</v>
@@ -26433,31 +26433,31 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.75207685503</v>
+      </c>
+      <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="K4" t="n">
-        <v>14216.75207685509</v>
-      </c>
       <c r="L4" t="n">
+        <v>22207.61133994854</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22207.61133994859</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22207.61133994854</v>
+      </c>
+      <c r="O4" t="n">
         <v>22207.61133994852</v>
       </c>
-      <c r="M4" t="n">
-        <v>22207.61133994853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22207.61133994853</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22207.61133994853</v>
-      </c>
       <c r="P4" t="n">
-        <v>22207.61133994858</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.97598790075</v>
+        <v>72511.97598790101</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587233</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-742751.1831219348</v>
+        <v>-743111.2661376521</v>
       </c>
       <c r="C6" t="n">
-        <v>-386071.5103386751</v>
+        <v>-386071.510338678</v>
       </c>
       <c r="D6" t="n">
-        <v>-302951.7396726194</v>
+        <v>-302951.7396726158</v>
       </c>
       <c r="E6" t="n">
-        <v>-595710.4995215252</v>
+        <v>-595745.2374469612</v>
       </c>
       <c r="F6" t="n">
-        <v>5732.70805273873</v>
+        <v>5697.970127303037</v>
       </c>
       <c r="G6" t="n">
-        <v>5732.708052738788</v>
+        <v>5697.970127303008</v>
       </c>
       <c r="H6" t="n">
-        <v>5732.70805273873</v>
+        <v>5697.970127303037</v>
       </c>
       <c r="I6" t="n">
-        <v>5732.70805273873</v>
+        <v>5697.970127302993</v>
       </c>
       <c r="J6" t="n">
-        <v>-43332.23667580587</v>
+        <v>-43366.9746012416</v>
       </c>
       <c r="K6" t="n">
-        <v>-44488.96205564297</v>
+        <v>-44523.69998107955</v>
       </c>
       <c r="L6" t="n">
-        <v>-61999.48287486874</v>
+        <v>-61999.48287486788</v>
       </c>
       <c r="M6" t="n">
-        <v>-159361.8422658191</v>
+        <v>-159361.8422658192</v>
       </c>
       <c r="N6" t="n">
-        <v>-2215.461714221412</v>
+        <v>-2215.461714221456</v>
       </c>
       <c r="O6" t="n">
-        <v>-2215.461714221441</v>
+        <v>-2215.461714221427</v>
       </c>
       <c r="P6" t="n">
-        <v>-2215.461714221499</v>
+        <v>-2215.461714221427</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836583</v>
+        <v>716.4483122836612</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,22 +26790,22 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361348</v>
+        <v>382.6612299361382</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707537</v>
+        <v>167.9783713707566</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540268</v>
+        <v>137.2623522540239</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698149</v>
+        <v>195.1356427698183</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900295</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,10 +27036,10 @@
         <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698146</v>
+        <v>195.1356427698183</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900298</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="M4" t="n">
         <v>630.593331373484</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.519713256482333e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27258,13 +27258,13 @@
         <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698149</v>
+        <v>195.1356427698183</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900295</v>
+        <v>159.4537267900262</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>142.1063926783033</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>156.3671087792899</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27467,13 +27467,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
         <v>48.77881175550657</v>
@@ -27515,16 +27515,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310535</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>82.69445938629977</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>81.64514254067488</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>44.71405326085598</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>33.92328609374917</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>23.43375830553084</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027108</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>24.21481580557668</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>46.79851472807053</v>
       </c>
       <c r="H5" t="n">
-        <v>284.3190167165999</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476474</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719918827</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.12089456350343</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.059033344203</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>193.2015037608225</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>129.8778714018773</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7405094023016</v>
+        <v>150.7405094023015</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5978353037445</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>2.017892827656226</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>119.2023528106943</v>
       </c>
       <c r="S7" t="n">
-        <v>96.53982692204065</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074074</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485590306925</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>36.03505458508462</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>80.82799742121236</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,22 +27980,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>37.34118935679362</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>161.052554841895</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
         <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>44.82760301044041</v>
       </c>
       <c r="U10" t="n">
-        <v>47.62643007214228</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="35">
@@ -29983,13 +29983,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88019422023581</v>
+        <v>2.880194220235822</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799</v>
+        <v>29.49678905799011</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756412</v>
+        <v>111.0386876756416</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997393</v>
+        <v>244.4528841997403</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423212</v>
+        <v>366.3715055423227</v>
       </c>
       <c r="L5" t="n">
-        <v>454.516249409863</v>
+        <v>454.5162494098648</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739815</v>
+        <v>505.7369033739836</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022266</v>
+        <v>513.9202552022286</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247567</v>
+        <v>485.2803239247586</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126851</v>
+        <v>414.1755291126868</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004901</v>
+        <v>311.0285736004913</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868879</v>
+        <v>180.9230001868886</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362358</v>
+        <v>65.63242579362385</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908227</v>
+        <v>12.60805019908232</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2304155376188648</v>
+        <v>0.2304155376188657</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541039766044095</v>
+        <v>1.541039766044101</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574166</v>
+        <v>14.88319984574172</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704452</v>
+        <v>53.05772878704472</v>
       </c>
       <c r="J6" t="n">
-        <v>145.5944631594555</v>
+        <v>145.5944631594561</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844099</v>
+        <v>248.8441274844109</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754954</v>
+        <v>334.6016386754967</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945937</v>
+        <v>390.4643301945953</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519685</v>
+        <v>400.79875915197</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306756</v>
+        <v>366.6525622306771</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058509992</v>
+        <v>294.2710058510004</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462603</v>
+        <v>196.7123743462611</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442157992</v>
+        <v>95.67964442158029</v>
       </c>
       <c r="S6" t="n">
-        <v>28.62413775963482</v>
+        <v>28.62413775963493</v>
       </c>
       <c r="T6" t="n">
-        <v>6.21147168857247</v>
+        <v>6.211471688572494</v>
       </c>
       <c r="U6" t="n">
-        <v>0.10138419513448</v>
+        <v>0.1013841951344804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970531</v>
+        <v>1.291955972970536</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513801</v>
+        <v>11.48666310513805</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351381</v>
+        <v>38.85263962351396</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901655</v>
+        <v>91.34128728901692</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505762</v>
+        <v>150.1017939505768</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178188</v>
+        <v>192.0786180178196</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902806</v>
+        <v>202.5199712902814</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273906</v>
+        <v>197.7044990273914</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522348</v>
+        <v>182.6121042522355</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036358</v>
+        <v>156.2562024036365</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548324</v>
+        <v>108.1836951548328</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647496</v>
+        <v>58.09103856647519</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258643</v>
+        <v>22.51526909258652</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874087</v>
+        <v>5.520175520874108</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0704703257983927</v>
+        <v>0.07047032579839298</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31525,16 +31525,16 @@
         <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
         <v>578.253840119091</v>
@@ -31543,10 +31543,10 @@
         <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>78.20676087699499</v>
@@ -31555,7 +31555,7 @@
         <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,7 +31598,7 @@
         <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
         <v>173.4885040076064</v>
@@ -31607,13 +31607,13 @@
         <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
         <v>436.898513388451</v>
@@ -31622,19 +31622,19 @@
         <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
         <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
         <v>108.841112100157</v>
@@ -31692,7 +31692,7 @@
         <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
         <v>217.5982526595399</v>
@@ -31701,7 +31701,7 @@
         <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
         <v>69.22054011153097</v>
@@ -31710,10 +31710,10 @@
         <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>170.3060203105426</v>
+        <v>99.08507489005474</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305303</v>
+        <v>63.406979673054</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973407</v>
+        <v>146.2816544973421</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398758</v>
+        <v>218.7498344398776</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467088</v>
+        <v>275.3906701467108</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056357</v>
+        <v>284.5071916056377</v>
       </c>
       <c r="O5" t="n">
-        <v>255.18211250307</v>
+        <v>255.1821125030719</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574156</v>
+        <v>182.9425333574172</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604058</v>
+        <v>88.72288372604183</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>144.8478718331977</v>
+        <v>18.7568364927894</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0026885100509</v>
+        <v>111.0026885100519</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956212</v>
+        <v>196.0472588956225</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725754</v>
+        <v>382.6612299361382</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686351</v>
+        <v>365.6323296314087</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862311</v>
+        <v>224.0563177862326</v>
       </c>
       <c r="P6" t="n">
-        <v>160.296598436669</v>
+        <v>160.2965984366701</v>
       </c>
       <c r="Q6" t="n">
-        <v>161.1457811461589</v>
+        <v>56.73060026023958</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8323021246934</v>
+        <v>127.832302124694</v>
       </c>
       <c r="L7" t="n">
-        <v>219.668643278135</v>
+        <v>219.6686432781357</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1038482521212</v>
+        <v>242.103848252122</v>
       </c>
       <c r="N7" t="n">
-        <v>241.8366714066192</v>
+        <v>241.83667140662</v>
       </c>
       <c r="O7" t="n">
-        <v>207.1972321662745</v>
+        <v>207.1972321662752</v>
       </c>
       <c r="P7" t="n">
-        <v>153.5347616685293</v>
+        <v>153.5347616685299</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.02165190313802</v>
+        <v>22.02165190313845</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
         <v>348.1556286974043</v>
@@ -35191,7 +35191,7 @@
         <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>423.1432842295777</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
         <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>542.1149567261643</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>252.9012296073447</v>
+        <v>236.2486803769245</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35349,7 +35349,7 @@
         <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349607</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
